--- a/FullAutoavaluacio 2024.xlsx
+++ b/FullAutoavaluacio 2024.xlsx
@@ -143,7 +143,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +181,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -243,43 +237,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -474,485 +468,485 @@
   </sheetPr>
   <dimension ref="B3:O1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1633861</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>1632380</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="n">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <f aca="false">SUM(C19:N19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="n">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="n">
         <f aca="false">C19*100%</f>
         <v>0.15</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <f aca="false">D19*100%</f>
         <v>0.15</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <f aca="false">E19*100%</f>
         <v>0.15</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="7" t="n">
         <f aca="false">F19*100%</f>
         <v>0.05</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="7" t="n">
         <f aca="false">G19*100%</f>
         <v>0.15</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="7" t="n">
         <f aca="false">H19*100%</f>
         <v>0.05</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="7" t="n">
         <f aca="false">I19*100%</f>
         <v>0.05</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="7" t="n">
         <f aca="false">J19*100%</f>
         <v>0.05</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="7" t="n">
         <f aca="false">K19*100%</f>
         <v>0.05</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="7" t="n">
         <f aca="false">L19*100%</f>
         <v>0.05</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="7" t="n">
         <f aca="false">M19*100%</f>
         <v>0.05</v>
       </c>
-      <c r="N20" s="6" t="n">
+      <c r="N20" s="7" t="n">
         <f aca="false">N19*100%</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="K21" s="2" t="n">
+      <c r="I21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="J21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="M21" s="2" t="n">
+      <c r="K21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
+      <c r="L21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <f aca="false">C21*C19</f>
         <v>1.05</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <f aca="false">D21*D19</f>
-        <v>1.35</v>
-      </c>
-      <c r="E22" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <f aca="false">E21*E19</f>
-        <v>1.35</v>
-      </c>
-      <c r="F22" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="3" t="n">
         <f aca="false">F21*F19</f>
         <v>0.3</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <f aca="false">G21*G19</f>
         <v>0.9</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="3" t="n">
         <f aca="false">H21*H19</f>
         <v>0.35</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="3" t="n">
         <f aca="false">I21*I19</f>
-        <v>0.45</v>
-      </c>
-      <c r="J22" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J22" s="3" t="n">
         <f aca="false">J21*J19</f>
-        <v>0.45</v>
-      </c>
-      <c r="K22" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K22" s="3" t="n">
         <f aca="false">K21*K19</f>
         <v>0.4</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="L22" s="3" t="n">
         <f aca="false">L21*L19</f>
         <v>0.4</v>
       </c>
-      <c r="M22" s="2" t="n">
+      <c r="M22" s="3" t="n">
         <f aca="false">M21*M19</f>
         <v>0.4</v>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="N22" s="3" t="n">
         <f aca="false">N21*N19</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <f aca="false">SUM(C22:N22)/10*C17</f>
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="9"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="10"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="9"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
